--- a/classfiers/chain/knn/nearmiss/chain-knn-nearmiss-results.xlsx
+++ b/classfiers/chain/knn/nearmiss/chain-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/knn/nearmiss/chain-knn-nearmiss-results.xlsx
+++ b/classfiers/chain/knn/nearmiss/chain-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7884615384615384</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.8630434782608696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6576923076923077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6635620915032681</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.7942307692307692</v>
       </c>
     </row>
   </sheetData>
